--- a/loaded_influencer_data/quynhquynhreview2329/quynhquynhreview2329_video.xlsx
+++ b/loaded_influencer_data/quynhquynhreview2329/quynhquynhreview2329_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7383701010549689617</t>
         </is>
@@ -515,10 +515,10 @@
         <v>2700000</v>
       </c>
       <c r="C2" t="n">
-        <v>7856</v>
+        <v>8007</v>
       </c>
       <c r="D2" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2971111111111111</v>
+        <v>0.3025925925925926</v>
       </c>
       <c r="I2" t="n">
-        <v>0.290962962962963</v>
+        <v>0.2965555555555556</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006148148148148147</v>
+        <v>0.006037037037037037</v>
       </c>
       <c r="L2" t="n">
         <v>0.03303703703703704</v>
@@ -558,7 +558,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7425838047985519879</t>
         </is>
@@ -567,10 +567,10 @@
         <v>1500000</v>
       </c>
       <c r="C3" t="n">
-        <v>8802</v>
+        <v>8809</v>
       </c>
       <c r="D3" t="n">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6156</v>
+        <v>0.6159333333333333</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5868</v>
+        <v>0.5872666666666667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0288</v>
+        <v>0.02866666666666667</v>
       </c>
       <c r="L3" t="n">
         <v>0.07333333333333333</v>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7377720799282744593</t>
         </is>
@@ -619,7 +619,7 @@
         <v>1400000</v>
       </c>
       <c r="C4" t="n">
-        <v>2202</v>
+        <v>2211</v>
       </c>
       <c r="D4" t="n">
         <v>126</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>주름이 늙어 보이게 하지 말고 최대한 빨리 이 아베라 세럼과 같은 주름 제거 제품을 사용해야 합니다.</t>
+          <t>Chị em nào vùng kín hay nách bị thâm thì tham khảo ngay em này nha 🥰🥰 #gmeelanvn #làmtrắngvùngnách #xuhuong #66sale #sale66 #sieusalehe66 #quynhquynhreview #lamdep</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.1662857142857143</v>
+        <v>0.1669285714285714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1572857142857143</v>
+        <v>0.1579285714285714</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,319 +662,319 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7488343098515361029</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>644</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>더운 여름에 이 드레스를 샀습니다.#Hanvobedding #drap #changa #changagoi #draplualanh #drapmuahe</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.174280879864636</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.089678510998308</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08460236886632826</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02030456852791878</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7487952072931855671</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>49400</v>
+      </c>
+      <c r="C6" t="n">
+        <v>847</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>153</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>어떻게 하면 저항력을 높이고 내부에서 몸을 따뜻하게 할 수 있을까요?#gungdanuongcao #nuoccotgung #gung</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1.836032388663968</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.714574898785425</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1214574898785425</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3097165991902834</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7487944261703339269</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>38400</v>
+      </c>
+      <c r="C7" t="n">
+        <v>802</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>168</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>정말 하얗고 너무 저렴해 보입니다.#saptrangrang #trangrang #trangrangtainha #toothpaste</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2.21875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.088541666666667</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1302083333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4375000000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7487932626737564983</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37900</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1626</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>122</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>지난 주말 파나소닉의 행사에 그린파워와 공동으로 참석한 사람은 누구나 자연스럽게 부엌을 개조하고 싶어했다. 😜</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4.398416886543536</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.29023746701847</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.108179419525066</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.3218997361477572</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7486479887121911058</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>81400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>735</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B9" t="n">
+        <v>81600</v>
+      </c>
+      <c r="C9" t="n">
+        <v>742</v>
+      </c>
+      <c r="D9" t="n">
         <v>45</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>123</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>머리카락이 얇다면 이 병을 사서 드셔보세요.#Bellhome #GungBellHome #Daugoibellhome #MocTocTuNhien</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>0.9582309582309583</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9029484029484028</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.05528255528255529</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.1511056511056511</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="H9" t="n">
+        <v>0.9644607843137256</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.909313725490196</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.05514705882352941</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1507352941176471</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7486474092133092616</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>40600</v>
-      </c>
-      <c r="C6" t="n">
-        <v>672</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="B10" t="n">
+        <v>40700</v>
+      </c>
+      <c r="C10" t="n">
+        <v>676</v>
+      </c>
+      <c r="D10" t="n">
         <v>48</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>89</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2025년 초에 산 것 중 하나인데 정말 마음에 들어요. 🥳#SPICER #giaythethao #giaychaybo #giaythoitrang #giaydep</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>1.773399014778325</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.655172413793103</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.1182266009852217</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2167487684729064</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="H10" t="n">
+        <v>1.778869778869779</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.660933660933661</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1179361179361179</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2186732186732187</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7486466194099244306</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>29500</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>1019</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>45</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>148</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>이번 시즌에는 모기가 많으니 사주세요.#theci #thecivietnam #xitmuoi #xitduoimuoi #xitcontrung #mevabe</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3.606779661016949</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.454237288135594</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1525423728813559</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.5016949152542373</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485745403669908754</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>52500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>994</v>
-      </c>
-      <c r="D8" t="n">
-        <v>62</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>15</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>최근에 삼촌은 이 듀오 엄마들 덕분에 켄이 도둑질을 했다고 칭찬했습니다. #mensongbachmaipro #innobi #innobizinc</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2.011428571428571</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.893333333333333</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1180952380952381</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485602664303332626</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>54800</v>
-      </c>
-      <c r="C9" t="n">
-        <v>935</v>
-      </c>
-      <c r="D9" t="n">
-        <v>68</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>150</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>잠시 경험 후 추천합니다. 😘#vuanem #giấc_ngủ_đáng_giá #tuhaohangviet #phongngudep #demgiuongngu</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1.83029197080292</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.706204379562044</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1240875912408759</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2737226277372263</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485376348219854087</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>76900</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D10" t="n">
-        <v>47</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>96</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>내 이빨이 튼튼해서 심장이 떨려요, 숙녀 여러분, 내 이빨을 돌보는 비결을 여러분과 공유하세요. 🥳#PS4D #PSVietNam</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1.69960988296489</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.638491547464239</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.06111833550065019</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.1248374512353706</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485244322665729287</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>54600</v>
-      </c>
-      <c r="C11" t="n">
-        <v>899</v>
-      </c>
-      <c r="D11" t="n">
-        <v>49</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -984,1980 +984,2030 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>이번 시즌에는 모기가 많으니 사주세요.#theci #thecivietnam #xitmuoi #xitduoimuoi #xitcontrung #mevabe</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3.606779661016949</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.454237288135594</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.1525423728813559</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5016949152542373</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485745403669908754</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52500</v>
+      </c>
+      <c r="C12" t="n">
+        <v>994</v>
+      </c>
+      <c r="D12" t="n">
+        <v>62</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>최근에 삼촌은 이 듀오 엄마들 덕분에 켄이 도둑질을 했다고 칭찬했습니다. #mensongbachmaipro #innobi #innobizinc</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2.011428571428571</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.893333333333333</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1180952380952381</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485602664303332626</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>54800</v>
+      </c>
+      <c r="C13" t="n">
+        <v>935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>68</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>150</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>잠시 경험 후 추천합니다. 😘#vuanem #giấc_ngủ_đáng_giá #tuhaohangviet #phongngudep #demgiuongngu</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1.83029197080292</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.706204379562044</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1240875912408759</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.2737226277372263</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485376348219854087</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>76900</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>내 이빨이 튼튼해서 심장이 떨려요, 숙녀 여러분, 내 이빨을 돌보는 비결을 여러분과 공유하세요. 🥳#PS4D #PSVietNam</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1.69960988296489</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.638491547464239</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.06111833550065019</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1248374512353706</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7485244322665729287</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>54600</v>
+      </c>
+      <c r="C15" t="n">
+        <v>899</v>
+      </c>
+      <c r="D15" t="n">
+        <v>49</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>148</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>내 경험의 결과는 내 기대 이상이었다. 🥳#putelo #putelovietnam #giaiphapmoctoctunhientunhatban</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>1.736263736263736</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>1.646520146520147</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.08974358974358974</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>0.271062271062271</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7484241216360500487</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>80300</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>1496</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>53</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>111</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>나는 그것을 매우 좋아합니다.#Candima #Thehigh #dungdichvesinhphunu #gelvesinhphunu #gelvesinh</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>1.929016189290162</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>1.863013698630137</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.06600249066002491</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>0.1382316313823163</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7483878859348200712</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>139600</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>1925</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>41</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>81</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>나는 그것이 무엇인지 말했다.@buheungkorea_official #BUHEUNGKorea #maymassageBUHEUNG</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>1.408309455587393</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>1.378939828080229</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.02936962750716332</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>0.05802292263610315</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7481651240359726343</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>160600</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>1897</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>46</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>68</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>나 같은 사람이 항상 그것을 사용하는 것을 좋아합니까?#farcentvietnam #farcent #fypシ #xuhuong #khumui</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>1.209838107098381</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>1.181195516811955</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.0286425902864259</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>0.04234122042341221</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7481280898441202962</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>85700</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>1130</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>38</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>136</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>내가 점심을 먹을 때 숙녀들이 나에게 너무 많은 것을 물었다.#Drleo #Drleovn #chammun #chammundrleo #skincare</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>1.362893815635939</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>1.31855309218203</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.04434072345390899</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>0.1586931155192532</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7479827779517795602</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>116000</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>641</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>49</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>118</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>시로 저항성 사용 웨지 엄마#Babytiger #sirodekhang #tangdekhang #mevabe</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>0.5948275862068965</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>0.5525862068965518</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.04224137931034483</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.1017241379310345</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7479455232255102215</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>64400</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>1095</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>44</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>55</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>켄, 우리 가족은 종종 칭찬을 받는데, 엄마들은 그것을 언급합니다.#Babytiger #d3k2 #mevabe #becaolon</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>1.768633540372671</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>1.700310559006211</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.06832298136645962</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>0.08540372670807453</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7478964985285119239</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>101300</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>1271</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>47</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>60</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>집은 작고 엄마는 아이들을 위한 프로바이오틱스를 가지고 있습니다.#Babytiger #menvisinh #menvisinhbabytiger</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>1.301085883514314</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>1.254689042448174</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.04639684106614018</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.05923000987166831</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7478693369720425746</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>114400</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>1469</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>40</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>93</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>어머니가 보충할 음료를 제안합니다. 🥰#ichnhan #Mykids #nuoctraicay</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>1.319055944055944</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>1.284090909090909</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.03496503496503497</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.08129370629370629</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7478311873272909064</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>79600</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>829</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>56</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>116</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>긴장을 풀고, 긴장을 풀고, 어깨와 목의 통증을 줄여도 괜찮습니다. 😍#hapaku #daichuomnong</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>1.111809045226131</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>1.041457286432161</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.07035175879396985</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>0.1457286432160804</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7477959347759271186</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>174500</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>916</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>49</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>128</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>8/3 이전 스킨케어#OlivNatural #DauOliunguyenchat #DauTamOliv #Nhuhoasachsau #3xduongam</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>0.5530085959885387</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>0.5249283667621777</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.02808022922636103</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.07335243553008597</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7477916096595545362</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>92400</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>1193</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>59</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>130</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>비듬 샴푸와 헤어 세럼은 괜찮습니다.#daugoithaoduoc #daugoithiennhien #daugoitrigau #daugoithuanmoc</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>1.354978354978355</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>1.291125541125541</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.06385281385281386</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>0.1406926406926407</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7476449229012045064</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>141600</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>1945</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>68</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>128</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>아프면 시럽을 상담해야 합니다. #doppelherzvietnam #kienthucdinhduong #chamsocsuckhoechudong</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>1.421610169491525</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>1.373587570621469</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.0480225988700565</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>0.0903954802259887</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7476097203325406471</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>74800</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>780</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>57</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>105</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>방금 새 매트리스를 샀는데 아주 좋아요. 👏#tatana #nemcaosunhantao #nemcaosu</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>1.118983957219251</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>1.042780748663102</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.07620320855614973</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>0.1403743315508021</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7476078467411496210</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>91800</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>1113</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>40</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>125</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>여름 팁 여기서 머리는 땋지 않습니다 🥳#daugoi #daugoiduoclieu #daugoiancung #ancung</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>1.25599128540305</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>1.212418300653595</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.04357298474945533</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.1361655773420479</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7475744025698503954</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>140500</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>871</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>44</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>32</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>한국 플라워틴 화장품#flowtine #skincare #myphamhanquoc</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>0.6512455516014235</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>0.6199288256227757</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.03131672597864769</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>0.02277580071174377</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7474597424833547538</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>80000</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>1282</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>27</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>116</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>제가 사용하고 있는 세탁 세제는 괜찮습니다.#SAIGLEI #SAIGLEI #nướcgiặtđồlótSAIGLEI</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>1.63625</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>1.6025</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.03375</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>0.145</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7473858501903863047</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>182000</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>1565</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>48</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>121</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>바디 크림은 내 피부를 매끄럽고 고르게 만들어#embeautybar #kembody #skincare #kemnangtonebody</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>0.8862637362637362</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>0.8598901098901098</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.02637362637362637</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.06648351648351648</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7473345697346096391</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>160900</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>1875</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>56</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>159</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>이 두피 마사지 기계는 편리하고 편안하며 스트레스를 해소합니다.@buheungkorea_official #BUHEUNGKorea</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>1.200124300807955</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>1.165320074580485</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.03480422622747048</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.09881914232442511</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7473108669731753224</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>103900</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>1933</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>49</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>115</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>"언니"에 문제가 있는 여성들은 이 제품을 사용해 보세요. #NovofemiSachhoingua #Novofemi #viendat</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>1.907603464870067</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>1.860442733397498</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04716073147256978</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>0.1106833493743985</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7472742179992063240</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>235700</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>2277</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>53</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>135</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>하루 종일 배경 실행 😘#xitkhoanen #khoanen #xitkhoamakeup #chamagic #makeup</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>0.9885447602885024</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>0.9660585490029698</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.02248621128553246</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.05727619855748833</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7472722760817593608</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>90700</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>1301</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>56</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>113</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>내 피부의 주름 회춘의 비결#tinhchatvangmonhanabera #monhanabera #abera #xoanhanvetchanchim</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>1.496141124586549</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>1.434399117971334</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.061742006615215</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.1245865490628446</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7472388540899298568</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>113400</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>1419</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>35</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Bảo vệ bản thân và gia đình từ những rủi ro bất ngờ #GCcreator #GCBHTN #GCaff #globalcarevn #angia247”</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>1.282186948853616</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>1.251322751322751</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.0308641975308642</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>0.003527336860670194</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7472381931695475976</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>81500</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>1345</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>41</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>95</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>하룻밤 잠을 잘 수 있는 발 패드#bvs #dangquan #misecr</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>1.700613496932515</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>1.650306748466258</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.05030674846625767</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>0.1165644171779141</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7472002040357539080</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>60900</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>1565</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>52</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>140</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>주방 청소는 매우 간단합니다. 👏#cleanz #chaisachnhabepcleanz #csnbcleanz #aikomi</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>2.655172413793103</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>2.569786535303777</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.08538587848932677</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>0.2298850574712644</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7467546674295082247</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>110000</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>1649</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>74</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>65</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>페나토 오일은 건강할 뿐만 아니라 맛있고 향긋합니다. 😋#Penato #DauanPenato #Dauan #daulac</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>1.566363636363636</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>1.499090909090909</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.06727272727272728</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.0590909090909091</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7462602791832358152</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>156900</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>787</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>61</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>114</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>목과 목 마사지 기계는 매우 유용합니다. 👏@buheungkorea_official #BUHEUNGKorea</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>0.5404716379859783</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>0.5015933715742511</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.03887826641172722</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>0.07265774378585087</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7462346012431076616</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>91300</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>1562</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>43</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>128</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Bộ sản phẩm chăm sóc răng miệng cho bé nhà mình đang dùng nè 🥰 #gacrangmieng #kemdanhrang #xitrangmieng #theci #sanphamthuanchay #mebimsausinh #bovacongai #babyshark</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>1.757940854326397</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>1.710843373493976</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.04709748083242059</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.140197152245345</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7461964508899069191</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>65900</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>949</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>54</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>126</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>우리 아기를 위한 치과 치료 제품이 사용되고 있습니다. 🥰#gacrangmieng #kemdanhrang #xitrangmieng #theci</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>1.522003034901366</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>1.440060698027314</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.08194233687405159</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.1911987860394537</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7461247916305321223</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>123700</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>1489</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>45</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>44</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>여성용 아름다운 제품😘 두옹암#NeedleFreeFiller #Hydrogenmask #ParkHangSeo #Pickk #Skincare</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>1.240097008892482</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>1.203718674211803</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.03637833468067906</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.03556992724333064</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7461232887740910856</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>78100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>1168</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>46</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>45</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>노란색 치아는 흰색 치아 지지 젤을 참조하십시오.#dailywhitening #sicawhite #geltrangrang</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>1.554417413572343</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>1.495518565941101</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.058898847631242</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>0.05761843790012804</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7461208317009153288</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>112200</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>309</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>47</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>13</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>부기를 제거하는 방법, 여성을 위한 다크서클 😘#bọngmắt #thanh_lăn_bọng_mắt #bọngmắtgià #bọngmắtto</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>0.3172905525846702</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>0.2754010695187166</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.04188948306595366</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>0.01158645276292335</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7460868839941721352</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>110400</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>801</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>40</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>60</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>귀리 우유는 섬유질이 많습니다. 맛있어요. 🥰#captainoats #suayenmach #thucuongyenmach</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>0.7617753623188406</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>0.7255434782608695</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.03623188405797102</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.05434782608695652</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7460851974351637778</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>120500</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>1383</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>51</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>100</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>새해에는 이 황금 캔디바를 놓치지 마세요. 🧧🧧#ILUMALL #ILU #BanhkeoTet</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>1.190041493775934</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>1.147717842323651</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.04232365145228215</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.08298755186721991</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7460491986605362450</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>96200</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>1425</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>50</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>63</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>곧 출시될 예정이니 이 제품을 사용하여 아기를 돌볼 수 있습니다.#salushbabyboost #babyboost</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>1.533264033264033</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>1.481288981288981</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.05197505197505198</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.06548856548856548</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7460140428168269063</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>179600</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>1139</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>60</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>71</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>테알 팬 세트가 아주 좋습니다. 👏 #TefalVN #bộnồichảoinoxcaocấp #bộnồichảoinox1810</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>0.6675946547884187</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>0.6341870824053453</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.03340757238307349</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>0.03953229398663697</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-15</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@quynhquynhreview2329/video/7459755439069187336</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>157100</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>1187</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>27</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>9</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Làm gì thì làm, phải sạch thì mới ôm con được chứ đúng không các mom? 🥰🥰🥰#suatamgungtaomo #smom #suatamlamamcothe #mebau #mesausin</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>0.772756206238065</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>0.7555697008274984</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.01718650541056652</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>0.005728835136855506</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7459375992155458823</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>114800</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1271</v>
-      </c>
-      <c r="D48" t="n">
-        <v>59</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>113</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>메이크업 리무버이지만 깨끗하고 매끄러운 피부인 HA와 콜라겐도 있습니다. 😘#Hanajirushi #taytrangquocdan</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>1.158536585365854</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1.107142857142857</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.05139372822299652</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.09843205574912892</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7458637613793103122</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>92900</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1359</v>
-      </c>
-      <c r="D49" t="n">
-        <v>55</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>157</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Tet은 거의 다 왔고 이 요리 세트를 사는 것은 훌륭합니다. 😍😍🥰🥰 #TefalVN #bộnồichảoinoxcaocấp</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1.522066738428418</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.46286329386437</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.05920344456404736</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1689989235737352</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@quynhquynhreview2329/video/7457944813837536530</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>44500</v>
-      </c>
-      <c r="C50" t="n">
-        <v>708</v>
-      </c>
-      <c r="D50" t="n">
-        <v>51</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>107</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>파트너, 고객을 위한 Tet 선물을 사고 싶은 사람. .. 참고하세요 😍😍#TheMargotGiftbox #MonarchLuxuryGift</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>1.70561797752809</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.591011235955056</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.1146067415730337</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.2404494382022472</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-10</t>
         </is>
       </c>
     </row>
